--- a/teaching/traditional_assets/database/data/malaysia/malaysia_insurance_prop_cas.xlsx
+++ b/teaching/traditional_assets/database/data/malaysia/malaysia_insurance_prop_cas.xlsx
@@ -591,121 +591,121 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0431</v>
+        <v>-0.009549999999999999</v>
       </c>
       <c r="E2">
-        <v>-0.12485</v>
+        <v>-0.159825</v>
       </c>
       <c r="G2">
-        <v>0.2273391516135579</v>
+        <v>0.263308302044222</v>
       </c>
       <c r="H2">
-        <v>0.2273391516135579</v>
+        <v>0.263308302044222</v>
       </c>
       <c r="I2">
-        <v>0.2505862371764569</v>
+        <v>0.2381309970796829</v>
       </c>
       <c r="J2">
-        <v>0.1689156606662592</v>
+        <v>0.219914595935892</v>
       </c>
       <c r="K2">
-        <v>82.40000000000001</v>
+        <v>78.51000000000001</v>
       </c>
       <c r="L2">
-        <v>0.1672417292470063</v>
+        <v>0.1637672090112641</v>
       </c>
       <c r="M2">
-        <v>70.55099999999999</v>
+        <v>73.15299999999999</v>
       </c>
       <c r="N2">
-        <v>0.04112082531911172</v>
+        <v>0.04538027295285359</v>
       </c>
       <c r="O2">
-        <v>0.8562014563106795</v>
+        <v>0.9317666539294356</v>
       </c>
       <c r="P2">
-        <v>69.66999999999999</v>
+        <v>72.41</v>
       </c>
       <c r="Q2">
-        <v>0.04060733228419886</v>
+        <v>0.04491935483870967</v>
       </c>
       <c r="R2">
-        <v>0.8455097087378639</v>
+        <v>0.9223028913514201</v>
       </c>
       <c r="S2">
-        <v>0.8810000000000002</v>
+        <v>0.7430000000000003</v>
       </c>
       <c r="T2">
-        <v>0.01248742044761946</v>
+        <v>0.01015679466324006</v>
       </c>
       <c r="U2">
-        <v>87.90000000000001</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="V2">
-        <v>0.0512327329952789</v>
+        <v>0.04150124069478908</v>
       </c>
       <c r="W2">
-        <v>0.02445801526717557</v>
+        <v>0.005963855421686747</v>
       </c>
       <c r="X2">
-        <v>0.05187406579969366</v>
+        <v>0.0482493014422786</v>
       </c>
       <c r="Y2">
-        <v>-0.02741605053251808</v>
+        <v>-0.04228544602059185</v>
       </c>
       <c r="Z2">
-        <v>0.6060920644155094</v>
+        <v>0.6040826612903226</v>
       </c>
       <c r="AA2">
-        <v>0.05202638248450196</v>
+        <v>0.03377061956098195</v>
       </c>
       <c r="AB2">
-        <v>0.05132050404973414</v>
+        <v>0.04787080373776594</v>
       </c>
       <c r="AC2">
-        <v>0.000705878434767819</v>
+        <v>-0.01410018417678399</v>
       </c>
       <c r="AD2">
-        <v>23.6</v>
+        <v>39.01000000000001</v>
       </c>
       <c r="AE2">
-        <v>4.360804715798252</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>27.96080471579825</v>
+        <v>39.01000000000001</v>
       </c>
       <c r="AG2">
-        <v>-59.93919528420176</v>
+        <v>-27.89</v>
       </c>
       <c r="AH2">
-        <v>0.01603569033620367</v>
+        <v>0.02362796106625642</v>
       </c>
       <c r="AI2">
-        <v>0.02836757288310796</v>
+        <v>0.03897453317481093</v>
       </c>
       <c r="AJ2">
-        <v>-0.03620039507728894</v>
+        <v>-0.01760610058644917</v>
       </c>
       <c r="AK2">
-        <v>-0.06676521738234779</v>
+        <v>-0.02986049399899359</v>
       </c>
       <c r="AL2">
-        <v>1.076</v>
+        <v>1.84</v>
       </c>
       <c r="AM2">
-        <v>1.076</v>
+        <v>1.84</v>
       </c>
       <c r="AN2">
-        <v>0.1848428835489834</v>
+        <v>0.332197905134974</v>
       </c>
       <c r="AO2">
-        <v>113.3550185873606</v>
+        <v>62.04347826086956</v>
       </c>
       <c r="AP2">
-        <v>-0.4694632921159949</v>
+        <v>-0.2375031933918079</v>
       </c>
       <c r="AQ2">
-        <v>113.3550185873606</v>
+        <v>62.04347826086956</v>
       </c>
     </row>
     <row r="3">
@@ -725,46 +725,46 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0842</v>
+        <v>0.04940000000000001</v>
       </c>
       <c r="E3">
-        <v>0.0793</v>
+        <v>-0.00465</v>
       </c>
       <c r="G3">
-        <v>0.3389830508474576</v>
+        <v>0.3470708446866485</v>
       </c>
       <c r="H3">
-        <v>0.3389830508474576</v>
+        <v>0.3470708446866485</v>
       </c>
       <c r="I3">
-        <v>0.340530366491238</v>
+        <v>0.3480926430517711</v>
       </c>
       <c r="J3">
-        <v>0.2654746938768427</v>
+        <v>0.2682081009451635</v>
       </c>
       <c r="K3">
-        <v>76.40000000000001</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="L3">
-        <v>0.2642684192320996</v>
+        <v>0.2687329700272479</v>
       </c>
       <c r="M3">
-        <v>65.59999999999999</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="N3">
-        <v>0.04465622872702518</v>
+        <v>0.05006984780530843</v>
       </c>
       <c r="O3">
-        <v>0.8586387434554973</v>
+        <v>0.8631178707224333</v>
       </c>
       <c r="P3">
-        <v>65.59999999999999</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="Q3">
-        <v>0.04465622872702518</v>
+        <v>0.05006984780530843</v>
       </c>
       <c r="R3">
-        <v>0.8586387434554973</v>
+        <v>0.8631178707224333</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -773,73 +773,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>50</v>
+        <v>24.6</v>
       </c>
       <c r="V3">
-        <v>0.03403675970047652</v>
+        <v>0.01808690537460481</v>
       </c>
       <c r="W3">
-        <v>0.1515873015873016</v>
+        <v>0.1727611123275674</v>
       </c>
       <c r="X3">
-        <v>0.05151137811774816</v>
+        <v>0.04804246279368089</v>
       </c>
       <c r="Y3">
-        <v>0.1000759234695534</v>
+        <v>0.1247186495338865</v>
       </c>
       <c r="Z3">
-        <v>0.6761571038748351</v>
+        <v>0.7018885967009324</v>
       </c>
       <c r="AA3">
-        <v>0.1795026001638244</v>
+        <v>0.1882522075962228</v>
       </c>
       <c r="AB3">
-        <v>0.05128945013677098</v>
+        <v>0.04784242501435481</v>
       </c>
       <c r="AC3">
-        <v>0.1282131500270534</v>
+        <v>0.140409782581868</v>
       </c>
       <c r="AD3">
-        <v>11.6</v>
+        <v>10.8</v>
       </c>
       <c r="AE3">
-        <v>3.06335523691543</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>14.66335523691543</v>
+        <v>10.8</v>
       </c>
       <c r="AG3">
-        <v>-35.33664476308457</v>
+        <v>-13.8</v>
       </c>
       <c r="AH3">
-        <v>0.009883209142530817</v>
+        <v>0.00787803632650084</v>
       </c>
       <c r="AI3">
-        <v>0.03110839031928006</v>
+        <v>0.02478769795731008</v>
       </c>
       <c r="AJ3">
-        <v>-0.02464779798828375</v>
+        <v>-0.01025031568001188</v>
       </c>
       <c r="AK3">
-        <v>-0.08386264330749933</v>
+        <v>-0.03356847482364389</v>
       </c>
       <c r="AL3">
-        <v>0.232</v>
+        <v>0.448</v>
       </c>
       <c r="AM3">
-        <v>0.232</v>
+        <v>0.448</v>
       </c>
       <c r="AN3">
-        <v>0.115930441734959</v>
+        <v>0.1046511627906977</v>
       </c>
       <c r="AO3">
-        <v>420.6896551724137</v>
+        <v>228.125</v>
       </c>
       <c r="AP3">
-        <v>-0.353154554897907</v>
+        <v>-0.1337209302325582</v>
       </c>
       <c r="AQ3">
-        <v>420.6896551724137</v>
+        <v>228.125</v>
       </c>
     </row>
     <row r="4">
@@ -859,28 +859,28 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.0431</v>
+        <v>-0.009549999999999999</v>
       </c>
       <c r="E4">
-        <v>-0.329</v>
+        <v>-0.315</v>
       </c>
       <c r="G4">
-        <v>0.08636748518204911</v>
+        <v>0.2149080348499516</v>
       </c>
       <c r="H4">
-        <v>0.08636748518204911</v>
+        <v>0.2149080348499516</v>
       </c>
       <c r="I4">
-        <v>0.1849831507554905</v>
+        <v>0.1006776379477251</v>
       </c>
       <c r="J4">
-        <v>0.1373784821013525</v>
+        <v>0.1006776379477251</v>
       </c>
       <c r="K4">
-        <v>8.01</v>
+        <v>1.98</v>
       </c>
       <c r="L4">
-        <v>0.06782387806943269</v>
+        <v>0.0191674733785092</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -904,73 +904,73 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>27.3</v>
+        <v>25.2</v>
       </c>
       <c r="V4">
-        <v>0.148936170212766</v>
+        <v>0.1299638989169675</v>
       </c>
       <c r="W4">
-        <v>0.02445801526717557</v>
+        <v>0.005963855421686747</v>
       </c>
       <c r="X4">
-        <v>0.05187406579969366</v>
+        <v>0.0482493014422786</v>
       </c>
       <c r="Y4">
-        <v>-0.02741605053251808</v>
+        <v>-0.04228544602059185</v>
       </c>
       <c r="Z4">
-        <v>0.3787083805899015</v>
+        <v>0.3354331731393688</v>
       </c>
       <c r="AA4">
-        <v>0.05202638248450196</v>
+        <v>0.03377061956098195</v>
       </c>
       <c r="AB4">
-        <v>0.05132050404973414</v>
+        <v>0.04787080373776594</v>
       </c>
       <c r="AC4">
-        <v>0.000705878434767819</v>
+        <v>-0.01410018417678399</v>
       </c>
       <c r="AD4">
-        <v>3.26</v>
+        <v>2.91</v>
       </c>
       <c r="AE4">
-        <v>1.297449478882821</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>4.557449478882821</v>
+        <v>2.91</v>
       </c>
       <c r="AG4">
-        <v>-22.74255052111718</v>
+        <v>-22.29</v>
       </c>
       <c r="AH4">
-        <v>0.02426014774247814</v>
+        <v>0.01478583405314771</v>
       </c>
       <c r="AI4">
-        <v>0.01109793450640222</v>
+        <v>0.006472275972509508</v>
       </c>
       <c r="AJ4">
-        <v>-0.1416474327098001</v>
+        <v>-0.1298875356913932</v>
       </c>
       <c r="AK4">
-        <v>-0.05932466044948985</v>
+        <v>-0.05251996889799958</v>
       </c>
       <c r="AL4">
-        <v>0.138</v>
+        <v>0.152</v>
       </c>
       <c r="AM4">
-        <v>0.138</v>
+        <v>0.152</v>
       </c>
       <c r="AN4">
-        <v>0.1369402671595396</v>
+        <v>0.2404958677685951</v>
       </c>
       <c r="AO4">
-        <v>153.6231884057971</v>
+        <v>68.42105263157895</v>
       </c>
       <c r="AP4">
-        <v>-0.9553285105064767</v>
+        <v>-1.842148760330578</v>
       </c>
       <c r="AQ4">
-        <v>153.6231884057971</v>
+        <v>68.42105263157895</v>
       </c>
     </row>
     <row r="5">
@@ -990,118 +990,118 @@
         </is>
       </c>
       <c r="D5">
-        <v>-0.0308</v>
+        <v>-0.0113</v>
       </c>
       <c r="G5">
-        <v>0.04456140350877193</v>
+        <v>0.02581818181818182</v>
       </c>
       <c r="H5">
-        <v>0.04456140350877193</v>
+        <v>0.02581818181818182</v>
       </c>
       <c r="I5">
-        <v>0.03707602339181287</v>
+        <v>0.01890909090909091</v>
       </c>
       <c r="J5">
-        <v>0.01853801169590643</v>
+        <v>0.01890909090909091</v>
       </c>
       <c r="K5">
-        <v>-2.01</v>
+        <v>-2.37</v>
       </c>
       <c r="L5">
-        <v>-0.02350877192982456</v>
+        <v>-0.02872727272727273</v>
       </c>
       <c r="M5">
-        <v>4.951000000000001</v>
+        <v>5.053</v>
       </c>
       <c r="N5">
-        <v>0.07809148264984228</v>
+        <v>0.08712068965517242</v>
       </c>
       <c r="O5">
-        <v>-2.46318407960199</v>
+        <v>-2.132067510548523</v>
       </c>
       <c r="P5">
-        <v>4.07</v>
+        <v>4.31</v>
       </c>
       <c r="Q5">
-        <v>0.06419558359621452</v>
+        <v>0.07431034482758619</v>
       </c>
       <c r="R5">
-        <v>-2.024875621890548</v>
+        <v>-1.818565400843882</v>
       </c>
       <c r="S5">
-        <v>0.8810000000000002</v>
+        <v>0.7430000000000003</v>
       </c>
       <c r="T5">
-        <v>0.1779438497273279</v>
+        <v>0.1470413615673858</v>
       </c>
       <c r="U5">
-        <v>10.6</v>
+        <v>17.1</v>
       </c>
       <c r="V5">
-        <v>0.167192429022082</v>
+        <v>0.2948275862068966</v>
       </c>
       <c r="W5">
-        <v>-0.02557251908396947</v>
+        <v>-0.03424855491329479</v>
       </c>
       <c r="X5">
-        <v>0.05462786859789356</v>
+        <v>0.060576809311195</v>
       </c>
       <c r="Y5">
-        <v>-0.08020038768186302</v>
+        <v>-0.09482536422448978</v>
       </c>
       <c r="Z5">
-        <v>1.163265306122449</v>
+        <v>1.225126225126225</v>
       </c>
       <c r="AA5">
-        <v>0.02156462585034014</v>
+        <v>0.02316602316602316</v>
       </c>
       <c r="AB5">
-        <v>0.05152979143729516</v>
+        <v>0.04905781374418811</v>
       </c>
       <c r="AC5">
-        <v>-0.02996516558695502</v>
+        <v>-0.02589179057816494</v>
       </c>
       <c r="AD5">
-        <v>8.74</v>
+        <v>25.3</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>8.74</v>
+        <v>25.3</v>
       </c>
       <c r="AG5">
-        <v>-1.859999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AH5">
-        <v>0.1211533130024952</v>
+        <v>0.3037214885954382</v>
       </c>
       <c r="AI5">
-        <v>0.08433037437282903</v>
+        <v>0.2188581314878893</v>
       </c>
       <c r="AJ5">
-        <v>-0.03022424439389014</v>
+        <v>0.1238670694864048</v>
       </c>
       <c r="AK5">
-        <v>-0.0199914015477214</v>
+        <v>0.083248730964467</v>
       </c>
       <c r="AL5">
-        <v>0.706</v>
+        <v>1.24</v>
       </c>
       <c r="AM5">
-        <v>0.706</v>
+        <v>1.24</v>
       </c>
       <c r="AN5">
-        <v>2.293963254593176</v>
+        <v>11.87793427230047</v>
       </c>
       <c r="AO5">
-        <v>4.490084985835694</v>
+        <v>1.258064516129032</v>
       </c>
       <c r="AP5">
-        <v>-0.4881889763779526</v>
+        <v>3.849765258215962</v>
       </c>
       <c r="AQ5">
-        <v>4.490084985835694</v>
+        <v>1.258064516129032</v>
       </c>
     </row>
   </sheetData>
